--- a/Hours.xlsx
+++ b/Hours.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Setting up and analyzing syndicate game</t>
   </si>
@@ -35,6 +35,15 @@
   </si>
   <si>
     <t xml:space="preserve">Figger out how to best use required class structure </t>
+  </si>
+  <si>
+    <t>Setting up the ui dynamically and making it organized</t>
+  </si>
+  <si>
+    <t>Setting up inventory, easilly adding/removing item's and displaying them correctly</t>
+  </si>
+  <si>
+    <t>Using ui to influence gameplay: equip item's switch character</t>
   </si>
 </sst>
 </file>
@@ -376,15 +385,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.75" customWidth="1"/>
+    <col min="1" max="1" width="62.125" customWidth="1"/>
     <col min="2" max="2" width="7.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -444,6 +453,30 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Hours.xlsx
+++ b/Hours.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Setting up and analyzing syndicate game</t>
   </si>
@@ -44,6 +44,30 @@
   </si>
   <si>
     <t>Using ui to influence gameplay: equip item's switch character</t>
+  </si>
+  <si>
+    <t>Enhancements</t>
+  </si>
+  <si>
+    <t>Hud</t>
+  </si>
+  <si>
+    <t>Follow/Remain Button</t>
+  </si>
+  <si>
+    <t>Persuading an enemy to follow you</t>
+  </si>
+  <si>
+    <t>Enemy shoot back when syndicate's gun out and are in tange</t>
+  </si>
+  <si>
+    <t>Enemy drop random items you pick up by walking over them</t>
+  </si>
+  <si>
+    <t>Spawn enemy's at random position</t>
+  </si>
+  <si>
+    <t>15min</t>
   </si>
 </sst>
 </file>
@@ -385,16 +409,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.125" customWidth="1"/>
-    <col min="2" max="2" width="7.75" customWidth="1"/>
+    <col min="1" max="1" width="62.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -477,6 +501,62 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Hours.xlsx
+++ b/Hours.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Setting up and analyzing syndicate game</t>
   </si>
@@ -68,6 +68,18 @@
   </si>
   <si>
     <t>15min</t>
+  </si>
+  <si>
+    <t>Pedestrians</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>Task:</t>
+  </si>
+  <si>
+    <t>Hours:</t>
   </si>
 </sst>
 </file>
@@ -409,53 +421,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="62.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -463,7 +475,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>0.5</v>
@@ -471,7 +483,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>0.5</v>
@@ -479,31 +491,31 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -511,7 +523,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -519,23 +531,23 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -543,18 +555,42 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
